--- a/project/docs/项目规划/《悦成长》项目_时间规划.xlsx
+++ b/project/docs/项目规划/《悦成长》项目_时间规划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>标识号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,11 +247,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80 个工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 个工作日</t>
+    <t>收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    上传和发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    社区分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    文章管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    说说管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    相册管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    照片管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    视频管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    成长树管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    果实管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,67 +315,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15 个工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 个工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    上传和发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    社区分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    文章管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    说说管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    相册管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    照片管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    视频管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    成长树管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    果实管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 个工作日</t>
+    <t>20 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,10 +768,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="3">
-        <v>43409</v>
+        <v>43423</v>
       </c>
       <c r="E2" s="3">
-        <v>43413</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -766,10 +782,10 @@
         <v>49</v>
       </c>
       <c r="D3" s="5">
-        <v>43413</v>
+        <v>43423</v>
       </c>
       <c r="E3" s="5">
-        <v>43414</v>
+        <v>43424</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -777,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5">
-        <v>43414</v>
+        <v>43424</v>
       </c>
       <c r="E4" s="5">
-        <v>43414</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -791,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3">
-        <v>43415</v>
+        <v>43425</v>
       </c>
       <c r="E5" s="3">
-        <v>43417</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -808,10 +824,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="4">
-        <v>43417</v>
+        <v>43427</v>
       </c>
       <c r="E6" s="4">
-        <v>43421</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -822,10 +838,10 @@
         <v>50</v>
       </c>
       <c r="D7" s="4">
-        <v>43421</v>
+        <v>43427</v>
       </c>
       <c r="E7" s="4">
-        <v>43425</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -836,10 +852,10 @@
         <v>52</v>
       </c>
       <c r="D8" s="4">
-        <v>43421</v>
+        <v>43427</v>
       </c>
       <c r="E8" s="4">
-        <v>43424</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -850,10 +866,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="3">
-        <v>43421</v>
+        <v>43427</v>
       </c>
       <c r="E9" s="3">
-        <v>43423</v>
+        <v>43429</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -864,10 +880,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="3">
-        <v>43421</v>
+        <v>43427</v>
       </c>
       <c r="E10" s="3">
-        <v>43423</v>
+        <v>43429</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -878,10 +894,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="5">
-        <v>43421</v>
+        <v>43427</v>
       </c>
       <c r="E11" s="5">
-        <v>43423</v>
+        <v>43429</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
@@ -900,10 +916,10 @@
         <v>49</v>
       </c>
       <c r="D13" s="5">
-        <v>43421</v>
+        <v>43427</v>
       </c>
       <c r="E13" s="5">
-        <v>43421</v>
+        <v>43428</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -914,10 +930,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="5">
-        <v>43423</v>
+        <v>43429</v>
       </c>
       <c r="E14" s="5">
-        <v>43423</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -928,10 +944,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="5">
-        <v>43423</v>
+        <v>43429</v>
       </c>
       <c r="E15" s="5">
-        <v>43423</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -942,10 +958,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="5">
-        <v>43424</v>
+        <v>43429</v>
       </c>
       <c r="E16" s="5">
-        <v>43424</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -955,11 +971,11 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3">
-        <v>43425</v>
-      </c>
-      <c r="E17" s="3">
-        <v>43426</v>
+      <c r="D17" s="5">
+        <v>43429</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43430</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -970,10 +986,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="5">
-        <v>43425</v>
+        <v>43429</v>
       </c>
       <c r="E18" s="5">
-        <v>43426</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -984,10 +1000,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="3">
-        <v>43426</v>
+        <v>43430</v>
       </c>
       <c r="E19" s="3">
-        <v>43428</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
@@ -998,10 +1014,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="5">
-        <v>43426</v>
+        <v>43430</v>
       </c>
       <c r="E20" s="5">
-        <v>43426</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
@@ -1012,10 +1028,10 @@
         <v>53</v>
       </c>
       <c r="D21" s="5">
-        <v>43426</v>
+        <v>43431</v>
       </c>
       <c r="E21" s="5">
-        <v>43427</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1025,8 +1041,12 @@
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3">
+        <v>43432</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43433</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -1035,8 +1055,12 @@
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="5">
+        <v>43432</v>
+      </c>
+      <c r="E23" s="5">
+        <v>43433</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -1045,8 +1069,12 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5">
+        <v>43432</v>
+      </c>
+      <c r="E24" s="5">
+        <v>43433</v>
+      </c>
     </row>
     <row r="25" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
@@ -1055,8 +1083,12 @@
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="5">
+        <v>43433</v>
+      </c>
+      <c r="E25" s="5">
+        <v>43434</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -1065,8 +1097,12 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5">
+        <v>43433</v>
+      </c>
+      <c r="E26" s="5">
+        <v>43434</v>
+      </c>
     </row>
     <row r="27" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
@@ -1075,8 +1111,12 @@
       <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="5">
+        <v>43434</v>
+      </c>
+      <c r="E27" s="5">
+        <v>43435</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -1085,8 +1125,12 @@
       <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5">
+        <v>43434</v>
+      </c>
+      <c r="E28" s="5">
+        <v>43435</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
@@ -1095,8 +1139,12 @@
       <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="5">
+        <v>43434</v>
+      </c>
+      <c r="E29" s="5">
+        <v>43435</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
@@ -1105,8 +1153,12 @@
       <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="5">
+        <v>43434</v>
+      </c>
+      <c r="E30" s="5">
+        <v>43435</v>
+      </c>
     </row>
     <row r="31" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
@@ -1115,48 +1167,68 @@
       <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="5">
+        <v>43434</v>
+      </c>
+      <c r="E31" s="5">
+        <v>43435</v>
+      </c>
     </row>
     <row r="32" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D32" s="3">
+        <v>43435</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43462</v>
+      </c>
     </row>
     <row r="33" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D33" s="3">
+        <v>43435</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43455</v>
+      </c>
     </row>
     <row r="34" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D34" s="3">
+        <v>43435</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43455</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D35" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
@@ -1165,58 +1237,82 @@
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D39" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="41" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D41" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="42" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
@@ -1225,8 +1321,12 @@
       <c r="C42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
@@ -1235,95 +1335,138 @@
       <c r="C43" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="D51" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43455</v>
+      </c>
     </row>
     <row r="52" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D52" s="4">
+        <v>43455</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43462</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
@@ -1332,8 +1475,12 @@
       <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="D53" s="4">
+        <v>43455</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43462</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
@@ -1342,8 +1489,12 @@
       <c r="C54" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="4">
+        <v>43455</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43462</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
@@ -1352,38 +1503,54 @@
       <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="4">
+        <v>43455</v>
+      </c>
+      <c r="E55" s="4">
+        <v>43462</v>
+      </c>
     </row>
     <row r="56" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43462</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43464</v>
+      </c>
     </row>
     <row r="57" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="4">
+        <v>43462</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43464</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43462</v>
+      </c>
+      <c r="E58" s="4">
+        <v>43464</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
@@ -1392,8 +1559,12 @@
       <c r="C59" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="D59" s="4">
+        <v>43462</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43464</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
